--- a/students.xlsx
+++ b/students.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27328"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Attendance_Tracking_System\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8718DF32-9E66-4528-9DBE-0F4210309106}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="630" yWindow="600" windowWidth="10215" windowHeight="4050"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
@@ -118,15 +124,6 @@
     <t>james.wilson@example.com</t>
   </si>
   <si>
-    <t>Isabella</t>
-  </si>
-  <si>
-    <t>Taylor</t>
-  </si>
-  <si>
-    <t>isabella.taylor@example.com</t>
-  </si>
-  <si>
     <t>Benjamin</t>
   </si>
   <si>
@@ -491,12 +488,21 @@
   </si>
   <si>
     <t>joseph.knight@example.com</t>
+  </si>
+  <si>
+    <t>ggd</t>
+  </si>
+  <si>
+    <t>fhfh</t>
+  </si>
+  <si>
+    <t>gddgdd</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -537,6 +543,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -826,14 +835,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -856,7 +867,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>20001</v>
       </c>
@@ -879,7 +890,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>20002</v>
       </c>
@@ -902,7 +913,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>20003</v>
       </c>
@@ -925,7 +936,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>20004</v>
       </c>
@@ -948,7 +959,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>20005</v>
       </c>
@@ -971,7 +982,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>20006</v>
       </c>
@@ -994,7 +1005,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>20007</v>
       </c>
@@ -1017,7 +1028,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>20008</v>
       </c>
@@ -1040,21 +1051,21 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>20009</v>
       </c>
       <c r="B10" t="s">
-        <v>34</v>
+        <v>156</v>
       </c>
       <c r="C10" t="s">
-        <v>35</v>
+        <v>157</v>
       </c>
       <c r="D10">
         <v>10009</v>
       </c>
       <c r="E10" t="s">
-        <v>36</v>
+        <v>158</v>
       </c>
       <c r="F10" t="s">
         <v>10</v>
@@ -1063,21 +1074,21 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>20010</v>
       </c>
       <c r="B11" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C11" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D11">
         <v>10010</v>
       </c>
       <c r="E11" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F11" t="s">
         <v>10</v>
@@ -1086,21 +1097,21 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>20011</v>
       </c>
       <c r="B12" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C12" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D12">
         <v>10011</v>
       </c>
       <c r="E12" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F12" t="s">
         <v>10</v>
@@ -1109,21 +1120,21 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>20012</v>
       </c>
       <c r="B13" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C13" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D13">
         <v>10012</v>
       </c>
       <c r="E13" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F13" t="s">
         <v>10</v>
@@ -1132,21 +1143,21 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>20013</v>
       </c>
       <c r="B14" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C14" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D14">
         <v>10013</v>
       </c>
       <c r="E14" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F14" t="s">
         <v>10</v>
@@ -1155,21 +1166,21 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>20014</v>
       </c>
       <c r="B15" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C15" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D15">
         <v>10014</v>
       </c>
       <c r="E15" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F15" t="s">
         <v>10</v>
@@ -1178,21 +1189,21 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>20015</v>
       </c>
       <c r="B16" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C16" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D16">
         <v>10015</v>
       </c>
       <c r="E16" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="F16" t="s">
         <v>10</v>
@@ -1201,21 +1212,21 @@
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>20016</v>
       </c>
       <c r="B17" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C17" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D17">
         <v>10016</v>
       </c>
       <c r="E17" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="F17" t="s">
         <v>10</v>
@@ -1224,21 +1235,21 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>20017</v>
       </c>
       <c r="B18" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C18" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D18">
         <v>10017</v>
       </c>
       <c r="E18" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F18" t="s">
         <v>10</v>
@@ -1247,21 +1258,21 @@
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>20018</v>
       </c>
       <c r="B19" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C19" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D19">
         <v>10018</v>
       </c>
       <c r="E19" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="F19" t="s">
         <v>10</v>
@@ -1270,21 +1281,21 @@
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>20019</v>
       </c>
       <c r="B20" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C20" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D20">
         <v>10019</v>
       </c>
       <c r="E20" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="F20" t="s">
         <v>10</v>
@@ -1293,21 +1304,21 @@
         <v>11</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20020</v>
       </c>
       <c r="B21" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C21" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D21">
         <v>10020</v>
       </c>
       <c r="E21" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F21" t="s">
         <v>10</v>
@@ -1316,21 +1327,21 @@
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>20021</v>
       </c>
       <c r="B22" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C22" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D22">
         <v>10021</v>
       </c>
       <c r="E22" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="F22" t="s">
         <v>10</v>
@@ -1339,21 +1350,21 @@
         <v>11</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>20022</v>
       </c>
       <c r="B23" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C23" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D23">
         <v>10022</v>
       </c>
       <c r="E23" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="F23" t="s">
         <v>10</v>
@@ -1362,21 +1373,21 @@
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>20023</v>
       </c>
       <c r="B24" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C24" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D24">
         <v>10023</v>
       </c>
       <c r="E24" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="F24" t="s">
         <v>10</v>
@@ -1385,21 +1396,21 @@
         <v>11</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>20024</v>
       </c>
       <c r="B25" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C25" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D25">
         <v>10024</v>
       </c>
       <c r="E25" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F25" t="s">
         <v>10</v>
@@ -1408,21 +1419,21 @@
         <v>15</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>20025</v>
       </c>
       <c r="B26" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C26" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D26">
         <v>10025</v>
       </c>
       <c r="E26" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="F26" t="s">
         <v>10</v>
@@ -1431,21 +1442,21 @@
         <v>11</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>20026</v>
       </c>
       <c r="B27" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C27" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D27">
         <v>10026</v>
       </c>
       <c r="E27" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="F27" t="s">
         <v>10</v>
@@ -1454,21 +1465,21 @@
         <v>15</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>20027</v>
       </c>
       <c r="B28" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C28" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D28">
         <v>10027</v>
       </c>
       <c r="E28" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F28" t="s">
         <v>10</v>
@@ -1477,21 +1488,21 @@
         <v>11</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>20028</v>
       </c>
       <c r="B29" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C29" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D29">
         <v>10028</v>
       </c>
       <c r="E29" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="F29" t="s">
         <v>10</v>
@@ -1500,21 +1511,21 @@
         <v>15</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>20029</v>
       </c>
       <c r="B30" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C30" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D30">
         <v>10029</v>
       </c>
       <c r="E30" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="F30" t="s">
         <v>10</v>
@@ -1523,21 +1534,21 @@
         <v>11</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>20030</v>
       </c>
       <c r="B31" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C31" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D31">
         <v>10030</v>
       </c>
       <c r="E31" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="F31" t="s">
         <v>10</v>
@@ -1546,21 +1557,21 @@
         <v>15</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>20031</v>
       </c>
       <c r="B32" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C32" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D32">
         <v>10031</v>
       </c>
       <c r="E32" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="F32" t="s">
         <v>10</v>
@@ -1569,21 +1580,21 @@
         <v>11</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>20032</v>
       </c>
       <c r="B33" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C33" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D33">
         <v>10032</v>
       </c>
       <c r="E33" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="F33" t="s">
         <v>10</v>
@@ -1592,21 +1603,21 @@
         <v>15</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>20033</v>
       </c>
       <c r="B34" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C34" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D34">
         <v>10033</v>
       </c>
       <c r="E34" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="F34" t="s">
         <v>10</v>
@@ -1615,21 +1626,21 @@
         <v>11</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>20034</v>
       </c>
       <c r="B35" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C35" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D35">
         <v>10034</v>
       </c>
       <c r="E35" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="F35" t="s">
         <v>10</v>
@@ -1638,21 +1649,21 @@
         <v>15</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>20035</v>
       </c>
       <c r="B36" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C36" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D36">
         <v>10035</v>
       </c>
       <c r="E36" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="F36" t="s">
         <v>10</v>
@@ -1661,21 +1672,21 @@
         <v>11</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>20036</v>
       </c>
       <c r="B37" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C37" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D37">
         <v>10036</v>
       </c>
       <c r="E37" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="F37" t="s">
         <v>10</v>
@@ -1684,21 +1695,21 @@
         <v>15</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>20037</v>
       </c>
       <c r="B38" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C38" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D38">
         <v>10037</v>
       </c>
       <c r="E38" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="F38" t="s">
         <v>10</v>
@@ -1707,21 +1718,21 @@
         <v>11</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>20038</v>
       </c>
       <c r="B39" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C39" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D39">
         <v>10038</v>
       </c>
       <c r="E39" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="F39" t="s">
         <v>10</v>
@@ -1730,21 +1741,21 @@
         <v>15</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>20039</v>
       </c>
       <c r="B40" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C40" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D40">
         <v>10039</v>
       </c>
       <c r="E40" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="F40" t="s">
         <v>10</v>
@@ -1753,21 +1764,21 @@
         <v>11</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>20040</v>
       </c>
       <c r="B41" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C41" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D41">
         <v>10040</v>
       </c>
       <c r="E41" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="F41" t="s">
         <v>10</v>
@@ -1776,21 +1787,21 @@
         <v>15</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>20041</v>
       </c>
       <c r="B42" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C42" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D42">
         <v>10041</v>
       </c>
       <c r="E42" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="F42" t="s">
         <v>10</v>
@@ -1799,21 +1810,21 @@
         <v>11</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>20042</v>
       </c>
       <c r="B43" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C43" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D43">
         <v>10042</v>
       </c>
       <c r="E43" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="F43" t="s">
         <v>10</v>
@@ -1822,21 +1833,21 @@
         <v>15</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>20043</v>
       </c>
       <c r="B44" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C44" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="D44">
         <v>10043</v>
       </c>
       <c r="E44" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="F44" t="s">
         <v>10</v>
@@ -1845,21 +1856,21 @@
         <v>11</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>20044</v>
       </c>
       <c r="B45" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C45" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="D45">
         <v>10044</v>
       </c>
       <c r="E45" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="F45" t="s">
         <v>10</v>
@@ -1868,21 +1879,21 @@
         <v>15</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>20045</v>
       </c>
       <c r="B46" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C46" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D46">
         <v>10045</v>
       </c>
       <c r="E46" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="F46" t="s">
         <v>10</v>
@@ -1891,21 +1902,21 @@
         <v>11</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>20046</v>
       </c>
       <c r="B47" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C47" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D47">
         <v>10046</v>
       </c>
       <c r="E47" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="F47" t="s">
         <v>10</v>
@@ -1914,21 +1925,21 @@
         <v>15</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>20047</v>
       </c>
       <c r="B48" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C48" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="D48">
         <v>10047</v>
       </c>
       <c r="E48" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="F48" t="s">
         <v>10</v>
@@ -1937,21 +1948,21 @@
         <v>11</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>20048</v>
       </c>
       <c r="B49" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C49" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="D49">
         <v>10048</v>
       </c>
       <c r="E49" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="F49" t="s">
         <v>10</v>
@@ -1960,21 +1971,21 @@
         <v>15</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>20049</v>
       </c>
       <c r="B50" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C50" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D50">
         <v>10049</v>
       </c>
       <c r="E50" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="F50" t="s">
         <v>10</v>
@@ -1983,21 +1994,21 @@
         <v>11</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>20050</v>
       </c>
       <c r="B51" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C51" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="D51">
         <v>10050</v>
       </c>
       <c r="E51" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="F51" t="s">
         <v>10</v>

--- a/students.xlsx
+++ b/students.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Attendance_Tracking_System\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8718DF32-9E66-4528-9DBE-0F4210309106}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A552388F-C80A-4A77-819C-E0DC5D879408}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -490,23 +490,31 @@
     <t>joseph.knight@example.com</t>
   </si>
   <si>
-    <t>ggd</t>
-  </si>
-  <si>
-    <t>fhfh</t>
-  </si>
-  <si>
-    <t>gddgdd</t>
+    <t>John</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>john@gmail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -529,13 +537,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -839,7 +850,7 @@
   <dimension ref="A1:G51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1064,7 +1075,7 @@
       <c r="D10">
         <v>10009</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" s="1" t="s">
         <v>158</v>
       </c>
       <c r="F10" t="s">
@@ -2018,6 +2029,9 @@
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E10" r:id="rId1" xr:uid="{31FC1ABD-4E02-4292-A9FD-DD4ED1BBF7C0}"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>